--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H2">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I2">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J2">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N2">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O2">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P2">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q2">
-        <v>1312.512410232339</v>
+        <v>1376.780693683113</v>
       </c>
       <c r="R2">
-        <v>11812.61169209105</v>
+        <v>12391.02624314801</v>
       </c>
       <c r="S2">
-        <v>0.1217516909220426</v>
+        <v>0.1183158101462852</v>
       </c>
       <c r="T2">
-        <v>0.1217516909220426</v>
+        <v>0.1183158101462852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H3">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I3">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J3">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.489171</v>
       </c>
       <c r="O3">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P3">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q3">
-        <v>271.1625768570661</v>
+        <v>192.0637767603407</v>
       </c>
       <c r="R3">
-        <v>2440.463191713595</v>
+        <v>1728.573990843066</v>
       </c>
       <c r="S3">
-        <v>0.02515366863562225</v>
+        <v>0.01650530215263557</v>
       </c>
       <c r="T3">
-        <v>0.02515366863562224</v>
+        <v>0.01650530215263557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H4">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I4">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J4">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N4">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P4">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q4">
-        <v>1030.182448690991</v>
+        <v>830.5184108728361</v>
       </c>
       <c r="R4">
-        <v>9271.642038218921</v>
+        <v>7474.665697855525</v>
       </c>
       <c r="S4">
-        <v>0.09556210981969747</v>
+        <v>0.07137190336461956</v>
       </c>
       <c r="T4">
-        <v>0.09556210981969745</v>
+        <v>0.07137190336461956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H5">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I5">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J5">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N5">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P5">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q5">
-        <v>301.6158546534933</v>
+        <v>209.7821224302254</v>
       </c>
       <c r="R5">
-        <v>2714.54269188144</v>
+        <v>1888.039101872028</v>
       </c>
       <c r="S5">
-        <v>0.0279785852131176</v>
+        <v>0.01802795600157663</v>
       </c>
       <c r="T5">
-        <v>0.02797858521311759</v>
+        <v>0.01802795600157663</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>78.705136</v>
       </c>
       <c r="I6">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J6">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N6">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O6">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P6">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q6">
-        <v>1248.236259963004</v>
+        <v>1848.597795578859</v>
       </c>
       <c r="R6">
-        <v>11234.12633966704</v>
+        <v>16637.38016020973</v>
       </c>
       <c r="S6">
-        <v>0.115789286360957</v>
+        <v>0.1588621534439464</v>
       </c>
       <c r="T6">
-        <v>0.115789286360957</v>
+        <v>0.1588621534439464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>78.705136</v>
       </c>
       <c r="I7">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J7">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.489171</v>
       </c>
       <c r="O7">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P7">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q7">
         <v>257.8832460091396</v>
@@ -883,10 +883,10 @@
         <v>2320.949214082256</v>
       </c>
       <c r="S7">
-        <v>0.02392184715154035</v>
+        <v>0.02216160156422694</v>
       </c>
       <c r="T7">
-        <v>0.02392184715154035</v>
+        <v>0.02216160156422694</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>78.705136</v>
       </c>
       <c r="I8">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J8">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N8">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P8">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q8">
-        <v>979.7325166669794</v>
+        <v>1115.133666945909</v>
       </c>
       <c r="R8">
-        <v>8817.592650002814</v>
+        <v>10036.20300251318</v>
       </c>
       <c r="S8">
-        <v>0.09088225728425499</v>
+        <v>0.09583076217690675</v>
       </c>
       <c r="T8">
-        <v>0.09088225728425497</v>
+        <v>0.09583076217690675</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>78.705136</v>
       </c>
       <c r="I9">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J9">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N9">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P9">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q9">
-        <v>286.8451706994346</v>
+        <v>281.6735961331164</v>
       </c>
       <c r="R9">
-        <v>2581.606536294911</v>
+        <v>2535.062365198048</v>
       </c>
       <c r="S9">
-        <v>0.02660842236097101</v>
+        <v>0.02420606264760553</v>
       </c>
       <c r="T9">
-        <v>0.026608422360971</v>
+        <v>0.02420606264760553</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H10">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I10">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J10">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N10">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O10">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P10">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q10">
-        <v>897.6104326980121</v>
+        <v>1386.115174529657</v>
       </c>
       <c r="R10">
-        <v>8078.493894282109</v>
+        <v>12475.03657076692</v>
       </c>
       <c r="S10">
-        <v>0.08326442258241487</v>
+        <v>0.119117983410859</v>
       </c>
       <c r="T10">
-        <v>0.08326442258241486</v>
+        <v>0.119117983410859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H11">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I11">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J11">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.489171</v>
       </c>
       <c r="O11">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P11">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q11">
-        <v>185.4446145016588</v>
+        <v>193.3659562967841</v>
       </c>
       <c r="R11">
-        <v>1669.001530514929</v>
+        <v>1740.293606671057</v>
       </c>
       <c r="S11">
-        <v>0.01720227192668338</v>
+        <v>0.0166172069952275</v>
       </c>
       <c r="T11">
-        <v>0.01720227192668338</v>
+        <v>0.0166172069952275</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H12">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I12">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J12">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N12">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P12">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q12">
-        <v>704.5285867915937</v>
+        <v>836.1492700463886</v>
       </c>
       <c r="R12">
-        <v>6340.757281124344</v>
+        <v>7525.343430417497</v>
       </c>
       <c r="S12">
-        <v>0.06535370338297175</v>
+        <v>0.07185580008687549</v>
       </c>
       <c r="T12">
-        <v>0.06535370338297174</v>
+        <v>0.07185580008687549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H13">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I13">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J13">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N13">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P13">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q13">
-        <v>206.2712212802453</v>
+        <v>211.2044311630229</v>
       </c>
       <c r="R13">
-        <v>1856.440991522208</v>
+        <v>1900.839880467206</v>
       </c>
       <c r="S13">
-        <v>0.0191341962054127</v>
+        <v>0.01815018433523295</v>
       </c>
       <c r="T13">
-        <v>0.01913419620541269</v>
+        <v>0.01815018433523295</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H14">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I14">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J14">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.57896333333333</v>
+        <v>70.46291600000001</v>
       </c>
       <c r="N14">
-        <v>142.73689</v>
+        <v>211.388748</v>
       </c>
       <c r="O14">
-        <v>0.4501884529482371</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="P14">
-        <v>0.450188452948237</v>
+        <v>0.5276750397950939</v>
       </c>
       <c r="Q14">
-        <v>1394.780323451011</v>
+        <v>1528.791446288929</v>
       </c>
       <c r="R14">
-        <v>12553.0229110591</v>
+        <v>13759.12301660036</v>
       </c>
       <c r="S14">
-        <v>0.1293830530828226</v>
+        <v>0.1313790927940032</v>
       </c>
       <c r="T14">
-        <v>0.1293830530828226</v>
+        <v>0.1313790927940032</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H15">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I15">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J15">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.489171</v>
       </c>
       <c r="O15">
-        <v>0.09300808131111739</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="P15">
-        <v>0.09300808131111736</v>
+        <v>0.07361176802536967</v>
       </c>
       <c r="Q15">
-        <v>288.1589718374989</v>
+        <v>213.2695936254448</v>
       </c>
       <c r="R15">
-        <v>2593.43074653749</v>
+        <v>1919.426342629003</v>
       </c>
       <c r="S15">
-        <v>0.0267302935972714</v>
+        <v>0.01832765731327965</v>
       </c>
       <c r="T15">
-        <v>0.0267302935972714</v>
+        <v>0.01832765731327965</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H16">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I16">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J16">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.34441866666666</v>
+        <v>42.505498</v>
       </c>
       <c r="N16">
-        <v>112.033256</v>
+        <v>127.516494</v>
       </c>
       <c r="O16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="P16">
-        <v>0.3533499868001453</v>
+        <v>0.3183105613832428</v>
       </c>
       <c r="Q16">
-        <v>1094.753998359849</v>
+        <v>922.2161876277046</v>
       </c>
       <c r="R16">
-        <v>9852.785985238639</v>
+        <v>8299.945688649341</v>
       </c>
       <c r="S16">
-        <v>0.1015519163132211</v>
+        <v>0.079252095754841</v>
       </c>
       <c r="T16">
-        <v>0.1015519163132211</v>
+        <v>0.079252095754841</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H17">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I17">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J17">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.933664</v>
+        <v>10.73653933333333</v>
       </c>
       <c r="N17">
-        <v>32.80099199999999</v>
+        <v>32.209618</v>
       </c>
       <c r="O17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="P17">
-        <v>0.1034534789405002</v>
+        <v>0.08040263079629371</v>
       </c>
       <c r="Q17">
-        <v>320.5210526253866</v>
+        <v>232.9442269398082</v>
       </c>
       <c r="R17">
-        <v>2884.689473628479</v>
+        <v>2096.498042458274</v>
       </c>
       <c r="S17">
-        <v>0.02973227516099895</v>
+        <v>0.0200184278118786</v>
       </c>
       <c r="T17">
-        <v>0.02973227516099895</v>
+        <v>0.0200184278118786</v>
       </c>
     </row>
   </sheetData>
